--- a/data/moe2018.xlsx
+++ b/data/moe2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pre-U\BN_UBD\4. SM2302_Software\git_test\hello-world\MOE2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pre-U\BN_UBD\4. SM2302_Software\git_test\grp-the-r-ones\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7F7E42-3922-4384-8546-C972D50E8672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181A72D5-2936-4080-B507-325D80E6A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{F8130892-C8BB-44EF-BFAE-F11D3EAC512E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{F8130892-C8BB-44EF-BFAE-F11D3EAC512E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="65">
   <si>
     <t>2.1.2</t>
   </si>
@@ -212,37 +212,10 @@
     <t>Year 13</t>
   </si>
   <si>
-    <t>Year 14</t>
-  </si>
-  <si>
-    <t>Year 15</t>
-  </si>
-  <si>
-    <t>Year 16</t>
-  </si>
-  <si>
-    <t>Year 17</t>
-  </si>
-  <si>
-    <t>Year 18</t>
-  </si>
-  <si>
     <t>2.2.2 NUMBER OF TEACHERS ACCORDING TO EDUCATION LEVEL BY DISTRICT</t>
   </si>
   <si>
-    <t>Sixth Form &amp; Diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teachers teaching more than one level of education are included in the level based on the highest number of teaching periods or number of classes taught. </t>
-  </si>
-  <si>
-    <t>One of the arabic institutions (Institut Tahfiz Al-Quran Sultan Haji Hassanal Bolkiah) conducts both secondary and Diploma 'Aliyah Qiraat programme.</t>
-  </si>
-  <si>
     <t>2.2.3 ENROLMENT ACCORDING TO EDUCATION LEVEL BY DISTRICT</t>
-  </si>
-  <si>
-    <t>Diploma</t>
   </si>
   <si>
     <t>2.3.2 NUMBER OF TEACHERS ACCORDING TO EDUCATION LEVEL BY DISTRICT</t>
@@ -356,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -389,24 +362,8 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -428,6 +385,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -956,13 +919,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,10 +933,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,258 +1053,258 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="13.21875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="17">
         <v>4138</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="17">
         <v>3967</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="17">
         <v>326</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="17">
         <v>927</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <v>43</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="17">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="17">
         <v>6400</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <v>6259</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>316</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="17">
         <v>1368</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <v>1404</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <v>42</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="17">
         <v>2146</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
         <v>1906</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="17">
         <v>0</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="17">
         <v>706</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="17">
         <v>0</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="17">
         <v>231</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="17">
         <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="17">
         <v>0</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="17">
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1366,12 +1329,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>72</v>
+      <c r="A1" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
+      <c r="A2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1643,8 +1606,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>73</v>
+      <c r="A1" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -2665,553 +2628,553 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="21">
         <v>40</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="21">
         <v>421</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="21">
         <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="21">
         <v>41</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="21">
         <v>500</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="21">
         <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="21">
         <v>56</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="21">
         <v>547</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="21">
         <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="21">
         <v>47</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="21">
         <v>513</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="21">
         <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="21">
         <v>29</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="21">
         <v>279</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="21">
         <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="21">
         <v>32</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="21">
         <v>337</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="21">
         <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="21">
         <v>39</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="21">
         <v>441</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="21">
         <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="21">
         <v>41</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="21">
         <v>482</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="21">
         <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="21">
         <v>59</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="21">
         <v>524</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="21">
         <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="21">
         <v>48</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="21">
         <v>564</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="21">
         <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="21">
         <v>28</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="21">
         <v>258</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="21">
         <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="21">
         <v>33</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="21">
         <v>341</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="21">
         <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="21">
         <v>48</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="21">
         <v>461</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="21">
         <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="21">
         <v>49</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="21">
         <v>469</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="21">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="21">
         <v>67</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="21">
         <v>606</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="21">
         <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="21">
         <v>57</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="21">
         <v>576</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="21">
         <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="21">
         <v>32</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="21">
         <v>269</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="21">
         <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="21">
         <v>37</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="21">
         <v>326</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="21">
         <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="21">
         <v>47</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="21">
         <v>492</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="21">
         <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="21">
         <v>53</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="21">
         <v>489</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="21">
         <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="21">
         <v>63</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="21">
         <v>578</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="21">
         <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="21">
         <v>56</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="21">
         <v>567</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="21">
         <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="21">
         <v>32</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="21">
         <v>248</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="21">
         <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="21">
         <v>37</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="21">
         <v>366</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="21">
         <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="21">
         <v>43</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="21">
         <v>489</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="21">
         <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="21">
         <v>56</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="21">
         <v>565</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="21">
         <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="21">
         <v>58</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="21">
         <v>505</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="21">
         <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="21">
         <v>56</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="21">
         <v>587</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="21">
         <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="21">
         <v>37</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="21">
         <v>300</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="21">
         <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="21">
         <v>35</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="21">
         <v>339</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="21">
         <v>327</v>
       </c>
     </row>
@@ -3225,246 +3188,246 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="14.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="17">
         <v>196</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="17">
         <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <v>145</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <v>85</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="17">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="17">
         <v>169</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="17">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <v>76</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="17">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <v>78</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <v>195</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="17">
         <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>107</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
         <v>82</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="17">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <v>151</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <v>60</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <v>50</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="17">
         <v>95</v>
       </c>
     </row>
@@ -3475,277 +3438,267 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEF23CC-162B-4453-B485-DA402BB711D9}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="20"/>
-    <col min="2" max="2" width="16.6640625" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="2" max="2" width="16.6640625" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="17">
         <v>28</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>7</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="17">
         <v>3</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <v>0</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="17">
         <v>102</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="17">
         <v>24</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="17">
         <v>4</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="17">
         <v>5</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="17">
         <v>20</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="17">
         <v>0</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="17">
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="17">
         <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3757,322 +3710,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA1F36E-5E5B-4961-A28F-B389D182D955}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="15.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="17">
         <v>553</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>47</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="17">
         <v>29</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <v>10</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="17">
         <v>1152</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
         <v>1696</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="17">
         <v>240</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="17">
         <v>60</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="17">
         <v>21</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="23">
-        <v>282</v>
-      </c>
-      <c r="D16" s="23">
-        <v>343</v>
+      <c r="C16" s="17">
+        <f>282+45</f>
+        <v>327</v>
+      </c>
+      <c r="D16" s="17">
+        <f>343+37</f>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="17">
         <v>0</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="17">
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="23">
-        <v>45</v>
-      </c>
-      <c r="D20" s="23">
-        <v>37</v>
-      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="23">
-        <v>0</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="23">
-        <v>0</v>
-      </c>
-      <c r="D22" s="23">
-        <v>0</v>
-      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="23">
-        <v>0</v>
-      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4089,258 +4008,258 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="12.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="17">
         <v>20</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="17">
         <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="17">
         <v>0</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <v>0</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="17">
         <v>166</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <v>721</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>11</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="17">
         <v>34</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <v>2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="17">
         <v>129</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="17">
         <v>0</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="17">
         <v>48</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="17">
         <v>0</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="17">
         <v>30</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="17">
         <v>0</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="17">
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="17">
         <v>0</v>
       </c>
     </row>

--- a/data/moe2018.xlsx
+++ b/data/moe2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pre-U\BN_UBD\4. SM2302_Software\git_test\grp-the-r-ones\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181A72D5-2936-4080-B507-325D80E6A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE04E3C-A891-4012-B2A8-BB707B8C02FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{F8130892-C8BB-44EF-BFAE-F11D3EAC512E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{F8130892-C8BB-44EF-BFAE-F11D3EAC512E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="65">
   <si>
     <t>2.1.2</t>
   </si>
@@ -236,10 +236,10 @@
     <t>Title</t>
   </si>
   <si>
-    <t>2.1.1 NUMBER OF SCHOOLS ACCORDING TO EDUCATION LEVEL BY DISTRICT</t>
-  </si>
-  <si>
     <t>2.1.3 ENROLMENT ACCORDING TO EDUCATION LEVEL BY DISTRICT</t>
+  </si>
+  <si>
+    <t>2.1.1 NUMBER OF TEACHERS ACCORDING TO EDUCATION LEVEL BY DISTRICT</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1330,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1607,7 +1607,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3440,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEF23CC-162B-4453-B485-DA402BB711D9}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3484,11 +3484,11 @@
       <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>53</v>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,11 +3498,11 @@
       <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>53</v>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3512,11 +3512,11 @@
       <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>53</v>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,11 +3526,11 @@
       <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>53</v>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3710,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA1F36E-5E5B-4961-A28F-B389D182D955}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3754,11 +3754,11 @@
       <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>53</v>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3768,11 +3768,11 @@
       <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>53</v>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3782,11 +3782,11 @@
       <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>53</v>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,11 +3796,11 @@
       <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>53</v>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
